--- a/data/countries_db.xlsx
+++ b/data/countries_db.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alain/Dev/smile/countrybot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B3931F-C794-3446-9B14-FCDF1C2E0414}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC95E85-1A98-1F43-A86E-0FAB2D888F9B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15980" xr2:uid="{08247F79-3219-3540-9F1A-E199F974E132}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="787">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -2371,6 +2372,21 @@
   </si>
   <si>
     <t>Antigua et barduda</t>
+  </si>
+  <si>
+    <t>", "capital": "</t>
+  </si>
+  <si>
+    <t>{"name": "</t>
+  </si>
+  <si>
+    <t>", "iso3": "</t>
+  </si>
+  <si>
+    <t>", "wikipage": "</t>
+  </si>
+  <si>
+    <t>"},</t>
   </si>
 </sst>
 </file>
@@ -2722,10 +2738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD66074E-788F-AE4C-8458-779F9A3DA16E}">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:P191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2734,9 +2750,14 @@
     <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2749,8 +2770,31 @@
       <c r="E1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" t="str">
+        <f>IF(ISBLANK(B1),A1,CONCATENATE(A1,",",B1))</f>
+        <v>Afghanistan</v>
+      </c>
+      <c r="K1" t="s">
+        <v>783</v>
+      </c>
+      <c r="L1" t="s">
+        <v>784</v>
+      </c>
+      <c r="M1" t="s">
+        <v>785</v>
+      </c>
+      <c r="N1" t="s">
+        <v>782</v>
+      </c>
+      <c r="O1" t="s">
+        <v>786</v>
+      </c>
+      <c r="P1" t="str">
+        <f>CONCATENATE($K$1,A1,$L$1,E1,$M$1,D1,$N$1,C1,$O$1)</f>
+        <v>{"name": "Afghanistan", "iso3": "AFG", "wikipage": "https://fr.wikipedia.org/wiki/Afghanistan", "capital": "Kaboul"},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -2763,8 +2807,16 @@
       <c r="E2" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G65" si="0">IF(ISBLANK(B2),A2,CONCATENATE(A2,",",B2))</f>
+        <v>Afrique du Sud</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P65" si="1">CONCATENATE($K$1,A2,$L$1,E2,$M$1,D2,$N$1,C2,$O$1)</f>
+        <v>{"name": "Afrique du Sud", "iso3": "ZAF", "wikipage": "https://fr.wikipedia.org/wiki/Afrique_du_Sud", "capital": "Pretoria"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -2777,8 +2829,16 @@
       <c r="E3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>Albanie</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Albanie", "iso3": "ALB", "wikipage": "https://fr.wikipedia.org/wiki/Albanie", "capital": "Tirana"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -2791,8 +2851,16 @@
       <c r="E4" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>Algérie</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Algérie", "iso3": "DZA", "wikipage": "https://fr.wikipedia.org/wiki/Alg%C3%A9rie", "capital": "Alger"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -2805,8 +2873,16 @@
       <c r="E5" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>Allemagne</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Allemagne", "iso3": "DEU", "wikipage": "https://fr.wikipedia.org/wiki/Allemagne", "capital": "Berlin"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -2819,8 +2895,16 @@
       <c r="E6" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>Andorre</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Andorre", "iso3": "AND", "wikipage": "https://fr.wikipedia.org/wiki/Andorre", "capital": "Andorre-la-Vieille"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2833,8 +2917,16 @@
       <c r="E7" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>Angola</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Angola", "iso3": "AGO", "wikipage": "https://fr.wikipedia.org/wiki/Angola", "capital": "Luanda"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>197</v>
       </c>
@@ -2850,8 +2942,16 @@
       <c r="E8" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>Antigua-et-Barbuda,Antigua et barduda</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Antigua-et-Barbuda", "iso3": "ATG", "wikipage": "https://fr.wikipedia.org/wiki/Antigua-et-Barbuda", "capital": "Saint John's"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>363</v>
       </c>
@@ -2864,8 +2964,16 @@
       <c r="E9" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>Arabie saoudite</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Arabie saoudite", "iso3": "SAU", "wikipage": "https://fr.wikipedia.org/wiki/Arabie_saoudite", "capital": "Riyad"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>199</v>
       </c>
@@ -2878,8 +2986,16 @@
       <c r="E10" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>Argentine</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Argentine", "iso3": "ARG", "wikipage": "https://fr.wikipedia.org/wiki/Argentine", "capital": "Buenos Aires"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -2892,8 +3008,16 @@
       <c r="E11" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>Arménie</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Arménie", "iso3": "ARM", "wikipage": "https://fr.wikipedia.org/wiki/Arm%C3%A9nie", "capital": "Erevan"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -2906,8 +3030,16 @@
       <c r="E12" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>Australie</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Australie", "iso3": "AUS", "wikipage": "https://fr.wikipedia.org/wiki/Australie", "capital": "Canberra"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -2920,8 +3052,16 @@
       <c r="E13" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>Autriche</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Autriche", "iso3": "AUT", "wikipage": "https://fr.wikipedia.org/wiki/Autriche", "capital": "Vienne"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>205</v>
       </c>
@@ -2934,8 +3074,16 @@
       <c r="E14" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>Azerbaïdjan</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Azerbaïdjan", "iso3": "AZE", "wikipage": "https://fr.wikipedia.org/wiki/Azerba%C3%AFdjan", "capital": "Bakou"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2948,8 +3096,16 @@
       <c r="E15" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>Bahamas</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Bahamas", "iso3": "BHS", "wikipage": "https://fr.wikipedia.org/wiki/Bahamas", "capital": "Nassau"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>207</v>
       </c>
@@ -2962,8 +3118,16 @@
       <c r="E16" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>Bahreïn</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Bahreïn", "iso3": "BHR", "wikipage": "https://fr.wikipedia.org/wiki/Bahre%C3%AFn", "capital": "Manama"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2976,8 +3140,16 @@
       <c r="E17" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>Bangladesh</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Bangladesh", "iso3": "BGD", "wikipage": "https://fr.wikipedia.org/wiki/Bangladesh", "capital": "Dacca"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -2990,8 +3162,16 @@
       <c r="E18" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>Barbade</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Barbade", "iso3": "BRB", "wikipage": "https://fr.wikipedia.org/wiki/Barbade", "capital": "Bridgetown"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>210</v>
       </c>
@@ -3004,8 +3184,16 @@
       <c r="E19" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>Belgique</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Belgique", "iso3": "BEL", "wikipage": "https://fr.wikipedia.org/wiki/Belgique", "capital": "Bruxelles"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3018,8 +3206,16 @@
       <c r="E20" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>Belize</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Belize", "iso3": "BLZ", "wikipage": "https://fr.wikipedia.org/wiki/Belize", "capital": "Belmopan"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>212</v>
       </c>
@@ -3032,8 +3228,16 @@
       <c r="E21" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>Bénin</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Bénin", "iso3": "BEN", "wikipage": "https://fr.wikipedia.org/wiki/B%C3%A9nin", "capital": "Porto-Novo"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>213</v>
       </c>
@@ -3046,8 +3250,16 @@
       <c r="E22" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>Bhoutan</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Bhoutan", "iso3": "BTN", "wikipage": "https://fr.wikipedia.org/wiki/Bhoutan", "capital": "Thimbu"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>216</v>
       </c>
@@ -3060,8 +3272,16 @@
       <c r="E23" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>Birmanie</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Birmanie", "iso3": "MMR", "wikipage": "https://fr.wikipedia.org/wiki/Birmanie", "capital": "Naypyidaw"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>217</v>
       </c>
@@ -3074,8 +3294,16 @@
       <c r="E24" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>Bolivie</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Bolivie", "iso3": "BOL", "wikipage": "https://fr.wikipedia.org/wiki/Bolivie", "capital": "Sucre"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>219</v>
       </c>
@@ -3088,8 +3316,16 @@
       <c r="E25" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>Bosnie-Herzégovine</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Bosnie-Herzégovine", "iso3": "BIH", "wikipage": "https://fr.wikipedia.org/wiki/Bosnie-Herz%C3%A9govine", "capital": "Sarajevo"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -3102,8 +3338,16 @@
       <c r="E26" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>Botswana</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Botswana", "iso3": "BWA", "wikipage": "https://fr.wikipedia.org/wiki/Botswana", "capital": "Gaborone"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>220</v>
       </c>
@@ -3116,8 +3360,16 @@
       <c r="E27" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>Brésil</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Brésil", "iso3": "BRA", "wikipage": "https://fr.wikipedia.org/wiki/Br%C3%A9sil", "capital": "Brasilia"},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -3130,8 +3382,16 @@
       <c r="E28" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>Brunei</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Brunei", "iso3": "BRN", "wikipage": "https://fr.wikipedia.org/wiki/Brunei", "capital": "Bandar Seri Begawan"},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>221</v>
       </c>
@@ -3144,8 +3404,16 @@
       <c r="E29" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>Bulgarie</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Bulgarie", "iso3": "BGR", "wikipage": "https://fr.wikipedia.org/wiki/Bulgarie", "capital": "Sofia"},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3158,8 +3426,16 @@
       <c r="E30" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>Burkina Faso</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Burkina Faso", "iso3": "BFA", "wikipage": "https://fr.wikipedia.org/wiki/Burkina_Faso", "capital": "Ouagadougou"},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -3172,8 +3448,16 @@
       <c r="E31" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>Burundi</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Burundi", "iso3": "BDI", "wikipage": "https://fr.wikipedia.org/wiki/Burundi", "capital": "Bujumbura"},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>222</v>
       </c>
@@ -3186,8 +3470,16 @@
       <c r="E32" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>Cambodge</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Cambodge", "iso3": "KHM", "wikipage": "https://fr.wikipedia.org/wiki/Cambodge", "capital": "Phnom Penh"},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>223</v>
       </c>
@@ -3200,8 +3492,16 @@
       <c r="E33" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>Cameroun</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Cameroun", "iso3": "CMR", "wikipage": "https://fr.wikipedia.org/wiki/Cameroun", "capital": "Yaoundé"},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -3214,8 +3514,16 @@
       <c r="E34" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>Canada</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Canada", "iso3": "CAN", "wikipage": "https://fr.wikipedia.org/wiki/Canada", "capital": "Ottawa"},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>225</v>
       </c>
@@ -3228,8 +3536,16 @@
       <c r="E35" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>Cap-Vert</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Cap-Vert", "iso3": "CPV", "wikipage": "https://fr.wikipedia.org/wiki/Cap-Vert", "capital": "Praia"},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>226</v>
       </c>
@@ -3242,8 +3558,16 @@
       <c r="E36" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>Chili</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Chili", "iso3": "CHL", "wikipage": "https://fr.wikipedia.org/wiki/Chili", "capital": "Santiago"},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>229</v>
       </c>
@@ -3256,8 +3580,16 @@
       <c r="E37" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>Chypre</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Chypre", "iso3": "CYP", "wikipage": "https://fr.wikipedia.org/wiki/Chypre_(pays)", "capital": "Nicosie"},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>231</v>
       </c>
@@ -3270,8 +3602,16 @@
       <c r="E38" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>Colombie</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Colombie", "iso3": "COL", "wikipage": "https://fr.wikipedia.org/wiki/Colombie", "capital": "Bogota"},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>233</v>
       </c>
@@ -3284,8 +3624,16 @@
       <c r="E39" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>Comores</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Comores", "iso3": "COM", "wikipage": "https://fr.wikipedia.org/wiki/Comores_(pays)", "capital": "Moroni"},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>235</v>
       </c>
@@ -3298,8 +3646,16 @@
       <c r="E40" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>Corée du Nord</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Corée du Nord", "iso3": "PRK", "wikipage": "https://fr.wikipedia.org/wiki/Cor%C3%A9e_du_Nord", "capital": "Pyongyang"},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>236</v>
       </c>
@@ -3315,8 +3671,16 @@
       <c r="E41" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>Corée du Sud,Corée</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Corée du Sud", "iso3": "KOR", "wikipage": "https://fr.wikipedia.org/wiki/Cor%C3%A9e_du_Sud", "capital": "Séoul"},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -3329,8 +3693,16 @@
       <c r="E42" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>Costa Rica</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Costa Rica", "iso3": "CRI", "wikipage": "https://fr.wikipedia.org/wiki/Costa_Rica", "capital": "San José"},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>239</v>
       </c>
@@ -3343,8 +3715,16 @@
       <c r="E43" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>Côte d'Ivoire</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Côte d'Ivoire", "iso3": "CIV", "wikipage": "https://fr.wikipedia.org/wiki/C%C3%B4te_d%27Ivoire", "capital": "Yamoussoukro"},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>240</v>
       </c>
@@ -3357,8 +3737,16 @@
       <c r="E44" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>Croatie</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Croatie", "iso3": "HRV", "wikipage": "https://fr.wikipedia.org/wiki/Croatie", "capital": "Zagreb"},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -3371,8 +3759,16 @@
       <c r="E45" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>Cuba</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Cuba", "iso3": "CUB", "wikipage": "https://fr.wikipedia.org/wiki/Cuba", "capital": "La Havane"},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -3385,8 +3781,16 @@
       <c r="E46" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>Djibouti</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Djibouti", "iso3": "DJI", "wikipage": "https://fr.wikipedia.org/wiki/Djibouti", "capital": "Djibouti"},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>242</v>
       </c>
@@ -3399,8 +3803,16 @@
       <c r="E47" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>Dominique</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Dominique", "iso3": "DMA", "wikipage": "https://fr.wikipedia.org/wiki/Dominique_(pays)", "capital": "Roseau"},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>366</v>
       </c>
@@ -3413,8 +3825,16 @@
       <c r="E48" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>Égypte</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Égypte", "iso3": "EGY", "wikipage": "https://fr.wikipedia.org/wiki/%C3%89gypte", "capital": "Le Caire"},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>362</v>
       </c>
@@ -3430,8 +3850,16 @@
       <c r="E49" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>Émirats arabes unis,Emirats, Emirat arabes</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Émirats arabes unis", "iso3": "ARE", "wikipage": "https://fr.wikipedia.org/wiki/%C3%89mirats_arabes_unis", "capital": "Abu Dhabi"},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>374</v>
       </c>
@@ -3444,8 +3872,16 @@
       <c r="E50" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>Équateur</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Équateur", "iso3": "ECU", "wikipage": "https://fr.wikipedia.org/wiki/%C3%89quateur_(pays)", "capital": "Quito"},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>372</v>
       </c>
@@ -3458,8 +3894,16 @@
       <c r="E51" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>Érythrée</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Érythrée", "iso3": "ERI", "wikipage": "https://fr.wikipedia.org/wiki/%C3%89rythr%C3%A9e", "capital": "Asmara"},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>244</v>
       </c>
@@ -3472,8 +3916,16 @@
       <c r="E52" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>Espagne</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Espagne", "iso3": "ESP", "wikipage": "https://fr.wikipedia.org/wiki/Espagne", "capital": "Madrid"},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>245</v>
       </c>
@@ -3486,8 +3938,16 @@
       <c r="E53" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>Estonie</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Estonie", "iso3": "EST", "wikipage": "https://fr.wikipedia.org/wiki/Estonie", "capital": "Tallinn"},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>378</v>
       </c>
@@ -3503,8 +3963,16 @@
       <c r="E54" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>États-Unis,USA, etats-unis</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "États-Unis", "iso3": "USA", "wikipage": "https://fr.wikipedia.org/wiki/%C3%89tats-Unis", "capital": "Washington"},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>370</v>
       </c>
@@ -3517,8 +3985,16 @@
       <c r="E55" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>Éthiopie</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Éthiopie", "iso3": "ETH", "wikipage": "https://fr.wikipedia.org/wiki/%C3%89thiopie", "capital": "Addis-Abeba"},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>248</v>
       </c>
@@ -3531,8 +4007,16 @@
       <c r="E56" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>Fidji</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Fidji", "iso3": "FJI", "wikipage": "https://fr.wikipedia.org/wiki/Fidji", "capital": "Suva"},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>249</v>
       </c>
@@ -3545,8 +4029,16 @@
       <c r="E57" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>Finlande</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Finlande", "iso3": "FIN", "wikipage": "https://fr.wikipedia.org/wiki/Finlande", "capital": "Helsinki"},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -3559,8 +4051,16 @@
       <c r="E58" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>France</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "France", "iso3": "FRA", "wikipage": "https://fr.wikipedia.org/wiki/France", "capital": "Paris"},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -3573,8 +4073,16 @@
       <c r="E59" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>Gabon</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Gabon", "iso3": "GAB", "wikipage": "https://fr.wikipedia.org/wiki/Gabon", "capital": "Libreville"},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>250</v>
       </c>
@@ -3587,8 +4095,16 @@
       <c r="E60" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>Gambie</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Gambie", "iso3": "GMB", "wikipage": "https://fr.wikipedia.org/wiki/Gambie", "capital": "Banjul"},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>251</v>
       </c>
@@ -3601,8 +4117,16 @@
       <c r="E61" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>Géorgie</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Géorgie", "iso3": "GEO", "wikipage": "https://fr.wikipedia.org/wiki/G%C3%A9orgie_(pays)", "capital": "Tbilissi"},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -3615,8 +4139,16 @@
       <c r="E62" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>Ghana</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Ghana", "iso3": "GHA", "wikipage": "https://fr.wikipedia.org/wiki/Ghana", "capital": "Accra"},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>253</v>
       </c>
@@ -3629,8 +4161,16 @@
       <c r="E63" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>Grèce</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Grèce", "iso3": "GRC", "wikipage": "https://fr.wikipedia.org/wiki/Gr%C3%A8ce", "capital": "Athènes"},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>255</v>
       </c>
@@ -3643,8 +4183,16 @@
       <c r="E64" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>Grenade</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Grenade", "iso3": "GRD", "wikipage": "https://fr.wikipedia.org/wiki/Grenade_(pays)", "capital": "Saint George's"},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -3657,8 +4205,16 @@
       <c r="E65" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>Guatemala</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name": "Guatemala", "iso3": "GTM", "wikipage": "https://fr.wikipedia.org/wiki/Guatemala", "capital": "Guatemala"},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>256</v>
       </c>
@@ -3671,8 +4227,16 @@
       <c r="E66" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G129" si="2">IF(ISBLANK(B66),A66,CONCATENATE(A66,",",B66))</f>
+        <v>Guinée</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" ref="P66:P129" si="3">CONCATENATE($K$1,A66,$L$1,E66,$M$1,D66,$N$1,C66,$O$1)</f>
+        <v>{"name": "Guinée", "iso3": "GIN", "wikipage": "https://fr.wikipedia.org/wiki/Guin%C3%A9e", "capital": "Conakry"},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>257</v>
       </c>
@@ -3685,8 +4249,16 @@
       <c r="E67" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G67" t="str">
+        <f t="shared" si="2"/>
+        <v>Guinée équatoriale</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Guinée équatoriale", "iso3": "GNQ", "wikipage": "https://fr.wikipedia.org/wiki/Guin%C3%A9e_%C3%A9quatoriale", "capital": "Malabo"},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>259</v>
       </c>
@@ -3702,8 +4274,16 @@
       <c r="E68" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G68" t="str">
+        <f t="shared" si="2"/>
+        <v>Guinée-Bissau,Guinée Bissau</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Guinée-Bissau", "iso3": "GNB", "wikipage": "https://fr.wikipedia.org/wiki/Guin%C3%A9e-Bissau", "capital": "Bissau"},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -3716,8 +4296,16 @@
       <c r="E69" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G69" t="str">
+        <f t="shared" si="2"/>
+        <v>Guyana</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Guyana", "iso3": "GUY", "wikipage": "https://fr.wikipedia.org/wiki/Guyana", "capital": "Georgetown"},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>260</v>
       </c>
@@ -3733,8 +4321,16 @@
       <c r="E70" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G70" t="str">
+        <f t="shared" si="2"/>
+        <v>Haïti,Haiti</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Haïti", "iso3": "HTI", "wikipage": "https://fr.wikipedia.org/wiki/Ha%C3%AFti", "capital": "Port-au-Prince"},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +4343,16 @@
       <c r="E71" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G71" t="str">
+        <f t="shared" si="2"/>
+        <v>Honduras</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Honduras", "iso3": "HND", "wikipage": "https://fr.wikipedia.org/wiki/Honduras", "capital": "Tegucigalpa"},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>261</v>
       </c>
@@ -3761,8 +4365,16 @@
       <c r="E72" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G72" t="str">
+        <f t="shared" si="2"/>
+        <v>Hongrie</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Hongrie", "iso3": "HUN", "wikipage": "https://fr.wikipedia.org/wiki/Hongrie", "capital": "Budapest"},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>780</v>
       </c>
@@ -3778,8 +4390,16 @@
       <c r="E73" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G73" t="str">
+        <f t="shared" si="2"/>
+        <v>île Maurice,Maurice</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "île Maurice", "iso3": "MUS", "wikipage": "https://fr.wikipedia.org/wiki/Maurice_(pays)", "capital": "Port Louis"},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>377</v>
       </c>
@@ -3795,8 +4415,16 @@
       <c r="E74" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G74" t="str">
+        <f t="shared" si="2"/>
+        <v>îles Marshall,Marshall</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "îles Marshall", "iso3": "MHL", "wikipage": "https://fr.wikipedia.org/wiki/%C3%8Eles_Marshall", "capital": "Majuro"},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>262</v>
       </c>
@@ -3809,8 +4437,16 @@
       <c r="E75" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G75" t="str">
+        <f t="shared" si="2"/>
+        <v>Inde</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Inde", "iso3": "IND", "wikipage": "https://fr.wikipedia.org/wiki/Inde", "capital": "New Delhi"},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>263</v>
       </c>
@@ -3823,8 +4459,16 @@
       <c r="E76" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G76" t="str">
+        <f t="shared" si="2"/>
+        <v>Indonésie</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Indonésie", "iso3": "IDN", "wikipage": "https://fr.wikipedia.org/wiki/Indon%C3%A9sie", "capital": "Jakarta"},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>264</v>
       </c>
@@ -3837,8 +4481,16 @@
       <c r="E77" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G77" t="str">
+        <f t="shared" si="2"/>
+        <v>Irak</v>
+      </c>
+      <c r="P77" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Irak", "iso3": "IRQ", "wikipage": "https://fr.wikipedia.org/wiki/Irak", "capital": "Bagdad"},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -3851,8 +4503,16 @@
       <c r="E78" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G78" t="str">
+        <f t="shared" si="2"/>
+        <v>Iran</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Iran", "iso3": "IRN", "wikipage": "https://fr.wikipedia.org/wiki/Iran", "capital": "Téhéran"},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>267</v>
       </c>
@@ -3865,8 +4525,16 @@
       <c r="E79" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G79" t="str">
+        <f t="shared" si="2"/>
+        <v>Irlande</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Irlande", "iso3": "IRL", "wikipage": "https://fr.wikipedia.org/wiki/Irlande_(pays)", "capital": "Dublin"},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>268</v>
       </c>
@@ -3879,8 +4547,16 @@
       <c r="E80" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G80" t="str">
+        <f t="shared" si="2"/>
+        <v>Islande</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Islande", "iso3": "ISL", "wikipage": "https://fr.wikipedia.org/wiki/Islande", "capital": "Reykjavik"},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>269</v>
       </c>
@@ -3893,8 +4569,16 @@
       <c r="E81" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G81" t="str">
+        <f t="shared" si="2"/>
+        <v>Israël</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Israël", "iso3": "ISR", "wikipage": "https://fr.wikipedia.org/wiki/Isra%C3%ABl", "capital": "Jérusalem"},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>271</v>
       </c>
@@ -3907,8 +4591,16 @@
       <c r="E82" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G82" t="str">
+        <f t="shared" si="2"/>
+        <v>Italie</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Italie", "iso3": "ITA", "wikipage": "https://fr.wikipedia.org/wiki/Italie", "capital": "Rome"},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>272</v>
       </c>
@@ -3921,8 +4613,16 @@
       <c r="E83" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G83" t="str">
+        <f t="shared" si="2"/>
+        <v>Jamaïque</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Jamaïque", "iso3": "JAM", "wikipage": "https://fr.wikipedia.org/wiki/Jama%C3%AFque", "capital": "Kingston"},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>273</v>
       </c>
@@ -3935,8 +4635,16 @@
       <c r="E84" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G84" t="str">
+        <f t="shared" si="2"/>
+        <v>Japon</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Japon", "iso3": "JPN", "wikipage": "https://fr.wikipedia.org/wiki/Japon", "capital": "Tokyo"},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>274</v>
       </c>
@@ -3949,8 +4657,16 @@
       <c r="E85" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G85" t="str">
+        <f t="shared" si="2"/>
+        <v>Jordanie</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Jordanie", "iso3": "JOR", "wikipage": "https://fr.wikipedia.org/wiki/Jordanie", "capital": "Amman"},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>78</v>
       </c>
@@ -3963,8 +4679,16 @@
       <c r="E86" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G86" t="str">
+        <f t="shared" si="2"/>
+        <v>Kazakhstan</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Kazakhstan", "iso3": "KAZ", "wikipage": "https://fr.wikipedia.org/wiki/Kazakhstan", "capital": "Astana"},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>80</v>
       </c>
@@ -3977,8 +4701,16 @@
       <c r="E87" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G87" t="str">
+        <f t="shared" si="2"/>
+        <v>Kenya</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Kenya", "iso3": "KEN", "wikipage": "https://fr.wikipedia.org/wiki/Kenya", "capital": "Nairobi"},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>275</v>
       </c>
@@ -3991,8 +4723,16 @@
       <c r="E88" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G88" t="str">
+        <f t="shared" si="2"/>
+        <v>Kirghizistan</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Kirghizistan", "iso3": "KGZ", "wikipage": "https://fr.wikipedia.org/wiki/Kirghizistan", "capital": "Bichkek"},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -4005,8 +4745,16 @@
       <c r="E89" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G89" t="str">
+        <f t="shared" si="2"/>
+        <v>Kiribati</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Kiribati", "iso3": "KIR", "wikipage": "https://fr.wikipedia.org/wiki/Kiribati", "capital": "Tarawa"},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>277</v>
       </c>
@@ -4019,8 +4767,16 @@
       <c r="E90" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G90" t="str">
+        <f t="shared" si="2"/>
+        <v>Koweït</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Koweït", "iso3": "KWT", "wikipage": "https://fr.wikipedia.org/wiki/Kowe%C3%AFt", "capital": "Koweït"},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -4033,8 +4789,16 @@
       <c r="E91" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G91" t="str">
+        <f t="shared" si="2"/>
+        <v>Laos</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Laos", "iso3": "LAO", "wikipage": "https://fr.wikipedia.org/wiki/Laos", "capital": "Vientiane"},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -4047,8 +4811,16 @@
       <c r="E92" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G92" t="str">
+        <f t="shared" si="2"/>
+        <v>Lesotho</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Lesotho", "iso3": "LSO", "wikipage": "https://fr.wikipedia.org/wiki/Lesotho", "capital": "Maseru"},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>278</v>
       </c>
@@ -4061,8 +4833,16 @@
       <c r="E93" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G93" t="str">
+        <f t="shared" si="2"/>
+        <v>Lettonie</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Lettonie", "iso3": "LVA", "wikipage": "https://fr.wikipedia.org/wiki/Lettonie", "capital": "Riga"},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>279</v>
       </c>
@@ -4075,8 +4855,16 @@
       <c r="E94" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G94" t="str">
+        <f t="shared" si="2"/>
+        <v>Liban</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Liban", "iso3": "LBN", "wikipage": "https://fr.wikipedia.org/wiki/Liban", "capital": "Beyrouth"},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>89</v>
       </c>
@@ -4089,8 +4877,16 @@
       <c r="E95" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G95" t="str">
+        <f t="shared" si="2"/>
+        <v>Liberia</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Liberia", "iso3": "LBR", "wikipage": "https://fr.wikipedia.org/wiki/Liberia", "capital": "Monrovia"},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>281</v>
       </c>
@@ -4103,8 +4899,16 @@
       <c r="E96" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G96" t="str">
+        <f t="shared" si="2"/>
+        <v>Libye</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Libye", "iso3": "LBY", "wikipage": "https://fr.wikipedia.org/wiki/Libye", "capital": "Tripoli"},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>92</v>
       </c>
@@ -4117,8 +4921,16 @@
       <c r="E97" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G97" t="str">
+        <f t="shared" si="2"/>
+        <v>Liechtenstein</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Liechtenstein", "iso3": "LIE", "wikipage": "https://fr.wikipedia.org/wiki/Liechtenstein", "capital": "Vaduz"},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>282</v>
       </c>
@@ -4131,8 +4943,16 @@
       <c r="E98" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G98" t="str">
+        <f t="shared" si="2"/>
+        <v>Lituanie</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Lituanie", "iso3": "LTU", "wikipage": "https://fr.wikipedia.org/wiki/Lituanie", "capital": "Vilnius"},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -4145,8 +4965,16 @@
       <c r="E99" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G99" t="str">
+        <f t="shared" si="2"/>
+        <v>Luxembourg</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Luxembourg", "iso3": "LUX", "wikipage": "https://fr.wikipedia.org/wiki/Luxembourg_(pays)", "capital": "Luxembourg"},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -4159,8 +4987,16 @@
       <c r="E100" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G100" t="str">
+        <f t="shared" si="2"/>
+        <v>Madagascar</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Madagascar", "iso3": "MDG", "wikipage": "https://fr.wikipedia.org/wiki/Madagascar", "capital": "Antananarivo"},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>284</v>
       </c>
@@ -4173,8 +5009,16 @@
       <c r="E101" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G101" t="str">
+        <f t="shared" si="2"/>
+        <v>Malaisie</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Malaisie", "iso3": "MYS", "wikipage": "https://fr.wikipedia.org/wiki/Malaisie", "capital": "Kuala Lumpur"},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -4187,8 +5031,16 @@
       <c r="E102" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G102" t="str">
+        <f t="shared" si="2"/>
+        <v>Malawi</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Malawi", "iso3": "MWI", "wikipage": "https://fr.wikipedia.org/wiki/Malawi", "capital": "Lilongwe"},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -4201,8 +5053,16 @@
       <c r="E103" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G103" t="str">
+        <f t="shared" si="2"/>
+        <v>Maldives</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Maldives", "iso3": "MDV", "wikipage": "https://fr.wikipedia.org/wiki/Maldives", "capital": "Malé"},</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4215,8 +5075,16 @@
       <c r="E104" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G104" t="str">
+        <f t="shared" si="2"/>
+        <v>Mali</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Mali", "iso3": "MLI", "wikipage": "https://fr.wikipedia.org/wiki/Mali", "capital": "Bamako"},</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>286</v>
       </c>
@@ -4229,8 +5097,16 @@
       <c r="E105" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G105" t="str">
+        <f t="shared" si="2"/>
+        <v>Malte</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Malte", "iso3": "MLT", "wikipage": "https://fr.wikipedia.org/wiki/Malte", "capital": "La Valette"},</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>288</v>
       </c>
@@ -4243,8 +5119,16 @@
       <c r="E106" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G106" t="str">
+        <f t="shared" si="2"/>
+        <v>Maroc</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Maroc", "iso3": "MAR", "wikipage": "https://fr.wikipedia.org/wiki/Maroc", "capital": "Rabat"},</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>290</v>
       </c>
@@ -4257,8 +5141,16 @@
       <c r="E107" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G107" t="str">
+        <f t="shared" si="2"/>
+        <v>Mauritanie</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Mauritanie", "iso3": "MRT", "wikipage": "https://fr.wikipedia.org/wiki/Mauritanie", "capital": "Nouakchott"},</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>291</v>
       </c>
@@ -4271,8 +5163,16 @@
       <c r="E108" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G108" t="str">
+        <f t="shared" si="2"/>
+        <v>Mexique</v>
+      </c>
+      <c r="P108" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Mexique", "iso3": "MEX", "wikipage": "https://fr.wikipedia.org/wiki/Mexique", "capital": "Mexico"},</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>292</v>
       </c>
@@ -4285,8 +5185,16 @@
       <c r="E109" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G109" t="str">
+        <f t="shared" si="2"/>
+        <v>Micronésie</v>
+      </c>
+      <c r="P109" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Micronésie", "iso3": "FSM", "wikipage": "https://fr.wikipedia.org/wiki/%C3%89tats_f%C3%A9d%C3%A9r%C3%A9s_de_Micron%C3%A9sie", "capital": "Palikir"},</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>605</v>
       </c>
@@ -4302,8 +5210,16 @@
       <c r="E110" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G110" t="str">
+        <f t="shared" si="2"/>
+        <v>République de Moldavie,Moldavie</v>
+      </c>
+      <c r="P110" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "République de Moldavie", "iso3": "MDA", "wikipage": "https://fr.wikipedia.org/wiki/Moldavie", "capital": "Chisinau"},</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -4316,8 +5232,16 @@
       <c r="E111" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G111" t="str">
+        <f t="shared" si="2"/>
+        <v>Monaco</v>
+      </c>
+      <c r="P111" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Monaco", "iso3": "MCO", "wikipage": "https://fr.wikipedia.org/wiki/Monaco", "capital": "Monaco"},</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>294</v>
       </c>
@@ -4330,8 +5254,16 @@
       <c r="E112" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G112" t="str">
+        <f t="shared" si="2"/>
+        <v>Mongolie</v>
+      </c>
+      <c r="P112" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Mongolie", "iso3": "MNG", "wikipage": "https://fr.wikipedia.org/wiki/Mongolie", "capital": "Oulan-Bator"},</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>296</v>
       </c>
@@ -4347,8 +5279,16 @@
       <c r="E113" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G113" t="str">
+        <f t="shared" si="2"/>
+        <v>Monténégro,Monténégro</v>
+      </c>
+      <c r="P113" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Monténégro", "iso3": "MNE", "wikipage": "https://fr.wikipedia.org/wiki/Mont%C3%A9n%C3%A9gro", "capital": "Podgorica"},</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -4361,8 +5301,16 @@
       <c r="E114" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G114" t="str">
+        <f t="shared" si="2"/>
+        <v>Mozambique</v>
+      </c>
+      <c r="P114" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Mozambique", "iso3": "MOZ", "wikipage": "https://fr.wikipedia.org/wiki/Mozambique", "capital": "Maputo"},</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>297</v>
       </c>
@@ -4375,8 +5323,16 @@
       <c r="E115" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G115" t="str">
+        <f t="shared" si="2"/>
+        <v>Namibie</v>
+      </c>
+      <c r="P115" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Namibie", "iso3": "NAM", "wikipage": "https://fr.wikipedia.org/wiki/Namibie", "capital": "Windhoek"},</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -4389,8 +5345,16 @@
       <c r="E116" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G116" t="str">
+        <f t="shared" si="2"/>
+        <v>Nauru</v>
+      </c>
+      <c r="P116" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Nauru", "iso3": "NRU", "wikipage": "https://fr.wikipedia.org/wiki/Nauru", "capital": "Yaren"},</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>299</v>
       </c>
@@ -4403,8 +5367,16 @@
       <c r="E117" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G117" t="str">
+        <f t="shared" si="2"/>
+        <v>Népal</v>
+      </c>
+      <c r="P117" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Népal", "iso3": "NPL", "wikipage": "https://fr.wikipedia.org/wiki/N%C3%A9pal", "capital": "Katmandou"},</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -4417,8 +5389,16 @@
       <c r="E118" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G118" t="str">
+        <f t="shared" si="2"/>
+        <v>Nicaragua</v>
+      </c>
+      <c r="P118" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Nicaragua", "iso3": "NIC", "wikipage": "https://fr.wikipedia.org/wiki/Nicaragua", "capital": "Managua"},</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -4431,8 +5411,16 @@
       <c r="E119" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G119" t="str">
+        <f t="shared" si="2"/>
+        <v>Niger</v>
+      </c>
+      <c r="P119" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Niger", "iso3": "NER", "wikipage": "https://fr.wikipedia.org/wiki/Niger", "capital": "Niamey"},</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -4445,8 +5433,16 @@
       <c r="E120" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G120" t="str">
+        <f t="shared" si="2"/>
+        <v>Nigeria</v>
+      </c>
+      <c r="P120" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Nigeria", "iso3": "NGA", "wikipage": "https://fr.wikipedia.org/wiki/Nigeria", "capital": "Abuja"},</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>301</v>
       </c>
@@ -4459,8 +5455,16 @@
       <c r="E121" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G121" t="str">
+        <f t="shared" si="2"/>
+        <v>Norvège</v>
+      </c>
+      <c r="P121" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Norvège", "iso3": "NOR", "wikipage": "https://fr.wikipedia.org/wiki/Norv%C3%A8ge", "capital": "Oslo"},</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>302</v>
       </c>
@@ -4476,8 +5480,16 @@
       <c r="E122" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G122" t="str">
+        <f t="shared" si="2"/>
+        <v>Nouvelle-Zélande,nouvelle zélande</v>
+      </c>
+      <c r="P122" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Nouvelle-Zélande", "iso3": "NZL", "wikipage": "https://fr.wikipedia.org/wiki/Nouvelle-Z%C3%A9lande", "capital": "Wellington"},</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -4490,8 +5502,16 @@
       <c r="E123" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G123" t="str">
+        <f t="shared" si="2"/>
+        <v>Oman</v>
+      </c>
+      <c r="P123" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Oman", "iso3": "OMN", "wikipage": "https://fr.wikipedia.org/wiki/Oman", "capital": "Mascate"},</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>304</v>
       </c>
@@ -4504,8 +5524,16 @@
       <c r="E124" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G124" t="str">
+        <f t="shared" si="2"/>
+        <v>Ouganda</v>
+      </c>
+      <c r="P124" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Ouganda", "iso3": "UGA", "wikipage": "https://fr.wikipedia.org/wiki/Ouganda", "capital": "Kampala"},</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>305</v>
       </c>
@@ -4518,8 +5546,16 @@
       <c r="E125" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G125" t="str">
+        <f t="shared" si="2"/>
+        <v>Ouzbékistan</v>
+      </c>
+      <c r="P125" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Ouzbékistan", "iso3": "UZB", "wikipage": "https://fr.wikipedia.org/wiki/Ouzb%C3%A9kistan", "capital": "Tachkent"},</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>130</v>
       </c>
@@ -4532,8 +5568,16 @@
       <c r="E126" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G126" t="str">
+        <f t="shared" si="2"/>
+        <v>Pakistan</v>
+      </c>
+      <c r="P126" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Pakistan", "iso3": "PAK", "wikipage": "https://fr.wikipedia.org/wiki/Pakistan", "capital": "Islamabad"},</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>307</v>
       </c>
@@ -4546,8 +5590,16 @@
       <c r="E127" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G127" t="str">
+        <f t="shared" si="2"/>
+        <v>Palaos</v>
+      </c>
+      <c r="P127" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Palaos", "iso3": "PLW", "wikipage": "https://fr.wikipedia.org/wiki/Palaos", "capital": "Melekeok"},</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>132</v>
       </c>
@@ -4560,8 +5612,16 @@
       <c r="E128" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G128" t="str">
+        <f t="shared" si="2"/>
+        <v>Panama</v>
+      </c>
+      <c r="P128" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Panama", "iso3": "PAN", "wikipage": "https://fr.wikipedia.org/wiki/Panama", "capital": "Panama"},</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>309</v>
       </c>
@@ -4577,8 +5637,16 @@
       <c r="E129" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G129" t="str">
+        <f t="shared" si="2"/>
+        <v>Papouasie-Nouvelle-Guinée,Nouvelle guinée</v>
+      </c>
+      <c r="P129" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name": "Papouasie-Nouvelle-Guinée", "iso3": "PNG", "wikipage": "https://fr.wikipedia.org/wiki/Papouasie-Nouvelle-Guin%C3%A9e", "capital": "Port Moresby"},</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>134</v>
       </c>
@@ -4591,8 +5659,16 @@
       <c r="E130" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G130" t="str">
+        <f t="shared" ref="G130:G191" si="4">IF(ISBLANK(B130),A130,CONCATENATE(A130,",",B130))</f>
+        <v>Paraguay</v>
+      </c>
+      <c r="P130" t="str">
+        <f t="shared" ref="P130:P191" si="5">CONCATENATE($K$1,A130,$L$1,E130,$M$1,D130,$N$1,C130,$O$1)</f>
+        <v>{"name": "Paraguay", "iso3": "PRY", "wikipage": "https://fr.wikipedia.org/wiki/Paraguay", "capital": "Asunción"},</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>310</v>
       </c>
@@ -4608,8 +5684,16 @@
       <c r="E131" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G131" t="str">
+        <f t="shared" si="4"/>
+        <v>Pays-Bas,Hollande</v>
+      </c>
+      <c r="P131" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Pays-Bas", "iso3": "NLD", "wikipage": "https://fr.wikipedia.org/wiki/Pays-Bas", "capital": "Amsterdam"},</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>311</v>
       </c>
@@ -4622,8 +5706,16 @@
       <c r="E132" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G132" t="str">
+        <f t="shared" si="4"/>
+        <v>Pérou</v>
+      </c>
+      <c r="P132" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Pérou", "iso3": "PER", "wikipage": "https://fr.wikipedia.org/wiki/P%C3%A9rou", "capital": "Lima"},</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>137</v>
       </c>
@@ -4636,8 +5728,16 @@
       <c r="E133" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G133" t="str">
+        <f t="shared" si="4"/>
+        <v>Philippines</v>
+      </c>
+      <c r="P133" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Philippines", "iso3": "PHL", "wikipage": "https://fr.wikipedia.org/wiki/Philippines", "capital": "Manille"},</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>313</v>
       </c>
@@ -4650,8 +5750,16 @@
       <c r="E134" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G134" t="str">
+        <f t="shared" si="4"/>
+        <v>Pologne</v>
+      </c>
+      <c r="P134" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Pologne", "iso3": "POL", "wikipage": "https://fr.wikipedia.org/wiki/Pologne", "capital": "Varsovie"},</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -4664,8 +5772,16 @@
       <c r="E135" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G135" t="str">
+        <f t="shared" si="4"/>
+        <v>Portugal</v>
+      </c>
+      <c r="P135" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Portugal", "iso3": "PRT", "wikipage": "https://fr.wikipedia.org/wiki/Portugal", "capital": "Lisbonne"},</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -4678,8 +5794,16 @@
       <c r="E136" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G136" t="str">
+        <f t="shared" si="4"/>
+        <v>Qatar</v>
+      </c>
+      <c r="P136" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Qatar", "iso3": "QAT", "wikipage": "https://fr.wikipedia.org/wiki/Qatar", "capital": "Doha"},</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>375</v>
       </c>
@@ -4695,8 +5819,16 @@
       <c r="E137" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G137" t="str">
+        <f t="shared" si="4"/>
+        <v>République centrafricaine,Centrafrique</v>
+      </c>
+      <c r="P137" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "République centrafricaine", "iso3": "CAF", "wikipage": "https://fr.wikipedia.org/wiki/R%C3%A9publique_centrafricaine", "capital": "Bangui"},</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>368</v>
       </c>
@@ -4712,8 +5844,16 @@
       <c r="E138" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G138" t="str">
+        <f t="shared" si="4"/>
+        <v>République de Macédoine,Macédoine</v>
+      </c>
+      <c r="P138" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "République de Macédoine", "iso3": "FYR", "wikipage": "https://fr.wikipedia.org/wiki/Mac%C3%A9doine_(pays)", "capital": "Skopje"},</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>365</v>
       </c>
@@ -4729,8 +5869,16 @@
       <c r="E139" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G139" t="str">
+        <f t="shared" si="4"/>
+        <v>République démocratique du Congo,RDC</v>
+      </c>
+      <c r="P139" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "République démocratique du Congo", "iso3": "COD", "wikipage": "https://fr.wikipedia.org/wiki/R%C3%A9publique_d%C3%A9mocratique_du_Congo", "capital": "Kinshasa"},</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>371</v>
       </c>
@@ -4743,8 +5891,16 @@
       <c r="E140" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G140" t="str">
+        <f t="shared" si="4"/>
+        <v>République dominicaine</v>
+      </c>
+      <c r="P140" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "République dominicaine", "iso3": "DOM", "wikipage": "https://fr.wikipedia.org/wiki/R%C3%A9publique_dominicaine", "capital": "Saint-Domingue"},</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>369</v>
       </c>
@@ -4760,8 +5916,16 @@
       <c r="E141" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G141" t="str">
+        <f t="shared" si="4"/>
+        <v>République du Congo,Congo</v>
+      </c>
+      <c r="P141" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "République du Congo", "iso3": "COG", "wikipage": "https://fr.wikipedia.org/wiki/R%C3%A9publique_du_Congo", "capital": "Brazzaville"},</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>364</v>
       </c>
@@ -4777,8 +5941,16 @@
       <c r="E142" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G142" t="str">
+        <f t="shared" si="4"/>
+        <v>République populaire de Chine,Chine</v>
+      </c>
+      <c r="P142" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "République populaire de Chine", "iso3": "CHN", "wikipage": "https://fr.wikipedia.org/wiki/Chine", "capital": "Pékin"},</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>379</v>
       </c>
@@ -4794,8 +5966,16 @@
       <c r="E143" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G143" t="str">
+        <f t="shared" si="4"/>
+        <v>République socialiste soviétique de Biélorussie,Biélorussie</v>
+      </c>
+      <c r="P143" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "République socialiste soviétique de Biélorussie", "iso3": "BLR", "wikipage": "https://fr.wikipedia.org/wiki/Bi%C3%A9lorussie", "capital": "Minsk"},</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>367</v>
       </c>
@@ -4811,8 +5991,16 @@
       <c r="E144" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G144" t="str">
+        <f t="shared" si="4"/>
+        <v>République tchèque,Tchéquie</v>
+      </c>
+      <c r="P144" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "République tchèque", "iso3": "CZE", "wikipage": "https://fr.wikipedia.org/wiki/R%C3%A9publique_tch%C3%A8que", "capital": "Prague"},</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>317</v>
       </c>
@@ -4825,8 +6013,16 @@
       <c r="E145" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G145" t="str">
+        <f t="shared" si="4"/>
+        <v>Roumanie</v>
+      </c>
+      <c r="P145" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Roumanie", "iso3": "ROU", "wikipage": "https://fr.wikipedia.org/wiki/Roumanie", "capital": "Bucarest"},</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>319</v>
       </c>
@@ -4842,8 +6038,16 @@
       <c r="E146" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G146" t="str">
+        <f t="shared" si="4"/>
+        <v>Royaume-Uni,Angleterre, Grande-Bretagne</v>
+      </c>
+      <c r="P146" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Royaume-Uni", "iso3": "GBR", "wikipage": "https://fr.wikipedia.org/wiki/Royaume-Uni", "capital": "Londres"},</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>321</v>
       </c>
@@ -4856,8 +6060,16 @@
       <c r="E147" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G147" t="str">
+        <f t="shared" si="4"/>
+        <v>Russie</v>
+      </c>
+      <c r="P147" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Russie", "iso3": "RUS", "wikipage": "https://fr.wikipedia.org/wiki/Russie", "capital": "Moscou"},</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>141</v>
       </c>
@@ -4870,8 +6082,16 @@
       <c r="E148" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G148" t="str">
+        <f t="shared" si="4"/>
+        <v>Rwanda</v>
+      </c>
+      <c r="P148" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Rwanda", "iso3": "RWA", "wikipage": "https://fr.wikipedia.org/wiki/Rwanda", "capital": "Kigali"},</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>323</v>
       </c>
@@ -4884,8 +6104,16 @@
       <c r="E149" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G149" t="str">
+        <f t="shared" si="4"/>
+        <v>Saint-Marin</v>
+      </c>
+      <c r="P149" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Saint-Marin", "iso3": "SMR", "wikipage": "https://fr.wikipedia.org/wiki/Saint-Marin", "capital": "Saint-Marin"},</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>324</v>
       </c>
@@ -4901,8 +6129,16 @@
       <c r="E150" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G150" t="str">
+        <f t="shared" si="4"/>
+        <v>Saint-Vincent-et-les-Grenadines,St Vincent les grenadine</v>
+      </c>
+      <c r="P150" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Saint-Vincent-et-les-Grenadines", "iso3": "VCT", "wikipage": "https://fr.wikipedia.org/wiki/Saint-Vincent-et-les-Grenadines", "capital": "Kingstown"},</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>325</v>
       </c>
@@ -4918,8 +6154,16 @@
       <c r="E151" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G151" t="str">
+        <f t="shared" si="4"/>
+        <v>Sainte-Lucie,Sainte Lucie</v>
+      </c>
+      <c r="P151" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Sainte-Lucie", "iso3": "LCA", "wikipage": "https://fr.wikipedia.org/wiki/Sainte-Lucie", "capital": "Castries"},</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>326</v>
       </c>
@@ -4932,8 +6176,16 @@
       <c r="E152" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G152" t="str">
+        <f t="shared" si="4"/>
+        <v>Salomon</v>
+      </c>
+      <c r="P152" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Salomon", "iso3": "SLB", "wikipage": "https://fr.wikipedia.org/wiki/%C3%8Eles_Salomon_(%C3%89tat)", "capital": "Honiara"},</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>327</v>
       </c>
@@ -4946,8 +6198,16 @@
       <c r="E153" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G153" t="str">
+        <f t="shared" si="4"/>
+        <v>Salvador</v>
+      </c>
+      <c r="P153" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Salvador", "iso3": "SLV", "wikipage": "https://fr.wikipedia.org/wiki/Salvador", "capital": "San Salvador"},</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -4960,8 +6220,16 @@
       <c r="E154" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G154" t="str">
+        <f t="shared" si="4"/>
+        <v>Samoa</v>
+      </c>
+      <c r="P154" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Samoa", "iso3": "WSM", "wikipage": "https://fr.wikipedia.org/wiki/Samoa", "capital": "Apia"},</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>328</v>
       </c>
@@ -4977,8 +6245,16 @@
       <c r="E155" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G155" t="str">
+        <f t="shared" si="4"/>
+        <v>São Tomé et Príncipe,Sao Tomé et principe, Sao Tomé</v>
+      </c>
+      <c r="P155" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "São Tomé et Príncipe", "iso3": "STP", "wikipage": "https://fr.wikipedia.org/wiki/Sao_Tom%C3%A9-et-Principe", "capital": "São Tomé"},</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>329</v>
       </c>
@@ -4991,8 +6267,16 @@
       <c r="E156" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G156" t="str">
+        <f t="shared" si="4"/>
+        <v>Sénégal</v>
+      </c>
+      <c r="P156" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Sénégal", "iso3": "SEN", "wikipage": "https://fr.wikipedia.org/wiki/S%C3%A9n%C3%A9gal", "capital": "Dakar"},</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>700</v>
       </c>
@@ -5008,8 +6292,16 @@
       <c r="E157" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G157" t="str">
+        <f t="shared" si="4"/>
+        <v>République de Serbie,Serbie</v>
+      </c>
+      <c r="P157" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "République de Serbie", "iso3": "SRB", "wikipage": "https://fr.wikipedia.org/wiki/Serbie", "capital": "Belgrade"},</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>150</v>
       </c>
@@ -5022,8 +6314,16 @@
       <c r="E158" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G158" t="str">
+        <f t="shared" si="4"/>
+        <v>Seychelles</v>
+      </c>
+      <c r="P158" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Seychelles", "iso3": "SYC", "wikipage": "https://fr.wikipedia.org/wiki/Seychelles", "capital": "Victoria"},</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>152</v>
       </c>
@@ -5036,8 +6336,16 @@
       <c r="E159" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G159" t="str">
+        <f t="shared" si="4"/>
+        <v>Sierra Leone</v>
+      </c>
+      <c r="P159" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Sierra Leone", "iso3": "SLE", "wikipage": "https://fr.wikipedia.org/wiki/Sierra_Leone", "capital": "Freetown"},</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>331</v>
       </c>
@@ -5050,8 +6358,16 @@
       <c r="E160" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G160" t="str">
+        <f t="shared" si="4"/>
+        <v>Singapour</v>
+      </c>
+      <c r="P160" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Singapour", "iso3": "SGP", "wikipage": "https://fr.wikipedia.org/wiki/Singapour", "capital": "Singapour"},</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>332</v>
       </c>
@@ -5064,8 +6380,16 @@
       <c r="E161" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G161" t="str">
+        <f t="shared" si="4"/>
+        <v>Slovaquie</v>
+      </c>
+      <c r="P161" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Slovaquie", "iso3": "SVK", "wikipage": "https://fr.wikipedia.org/wiki/Slovaquie", "capital": "Bratislava"},</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>333</v>
       </c>
@@ -5078,8 +6402,16 @@
       <c r="E162" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G162" t="str">
+        <f t="shared" si="4"/>
+        <v>Slovénie</v>
+      </c>
+      <c r="P162" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Slovénie", "iso3": "SVN", "wikipage": "https://fr.wikipedia.org/wiki/Slov%C3%A9nie", "capital": "Ljubljana"},</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>334</v>
       </c>
@@ -5092,8 +6424,16 @@
       <c r="E163" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G163" t="str">
+        <f t="shared" si="4"/>
+        <v>Somalie</v>
+      </c>
+      <c r="P163" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Somalie", "iso3": "SOM", "wikipage": "https://fr.wikipedia.org/wiki/Somalie", "capital": "Mogadiscio"},</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>336</v>
       </c>
@@ -5106,8 +6446,16 @@
       <c r="E164" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G164" t="str">
+        <f t="shared" si="4"/>
+        <v>Soudan</v>
+      </c>
+      <c r="P164" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Soudan", "iso3": "SDN", "wikipage": "https://fr.wikipedia.org/wiki/Soudan", "capital": "Khartoum"},</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>337</v>
       </c>
@@ -5120,8 +6468,16 @@
       <c r="E165" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G165" t="str">
+        <f t="shared" si="4"/>
+        <v>Soudan du Sud</v>
+      </c>
+      <c r="P165" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Soudan du Sud", "iso3": "SSD", "wikipage": "https://fr.wikipedia.org/wiki/Soudan_du_Sud", "capital": "Djouba"},</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>158</v>
       </c>
@@ -5134,8 +6490,16 @@
       <c r="E166" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G166" t="str">
+        <f t="shared" si="4"/>
+        <v>Sri Lanka</v>
+      </c>
+      <c r="P166" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Sri Lanka", "iso3": "LKA", "wikipage": "https://fr.wikipedia.org/wiki/Sri_Lanka", "capital": "Sri Jayawardenapura"},</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>340</v>
       </c>
@@ -5148,8 +6512,16 @@
       <c r="E167" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G167" t="str">
+        <f t="shared" si="4"/>
+        <v>Suède</v>
+      </c>
+      <c r="P167" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Suède", "iso3": "SWE", "wikipage": "https://fr.wikipedia.org/wiki/Su%C3%A8de", "capital": "Stockholm"},</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>341</v>
       </c>
@@ -5162,8 +6534,16 @@
       <c r="E168" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G168" t="str">
+        <f t="shared" si="4"/>
+        <v>Suisse</v>
+      </c>
+      <c r="P168" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Suisse", "iso3": "CHE", "wikipage": "https://fr.wikipedia.org/wiki/Suisse", "capital": "Berne"},</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -5176,8 +6556,16 @@
       <c r="E169" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G169" t="str">
+        <f t="shared" si="4"/>
+        <v>Suriname</v>
+      </c>
+      <c r="P169" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Suriname", "iso3": "SUR", "wikipage": "https://fr.wikipedia.org/wiki/Suriname", "capital": "Paramaribo"},</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>162</v>
       </c>
@@ -5190,8 +6578,16 @@
       <c r="E170" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G170" t="str">
+        <f t="shared" si="4"/>
+        <v>Swaziland</v>
+      </c>
+      <c r="P170" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Swaziland", "iso3": "SWZ", "wikipage": "https://fr.wikipedia.org/wiki/Swaziland", "capital": "Mbabane"},</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>343</v>
       </c>
@@ -5204,8 +6600,16 @@
       <c r="E171" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G171" t="str">
+        <f t="shared" si="4"/>
+        <v>Syrie</v>
+      </c>
+      <c r="P171" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Syrie", "iso3": "SYR", "wikipage": "https://fr.wikipedia.org/wiki/Syrie", "capital": "Damas"},</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>345</v>
       </c>
@@ -5218,8 +6622,16 @@
       <c r="E172" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G172" t="str">
+        <f t="shared" si="4"/>
+        <v>Tadjikistan</v>
+      </c>
+      <c r="P172" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Tadjikistan", "iso3": "TJK", "wikipage": "https://fr.wikipedia.org/wiki/Tadjikistan", "capital": "Douchanbe"},</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>347</v>
       </c>
@@ -5232,8 +6644,16 @@
       <c r="E173" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G173" t="str">
+        <f t="shared" si="4"/>
+        <v>Tanzanie</v>
+      </c>
+      <c r="P173" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Tanzanie", "iso3": "TZN", "wikipage": "https://fr.wikipedia.org/wiki/Tanzanie", "capital": "Dodoma"},</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>348</v>
       </c>
@@ -5246,8 +6666,16 @@
       <c r="E174" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G174" t="str">
+        <f t="shared" si="4"/>
+        <v>Tchad</v>
+      </c>
+      <c r="P174" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Tchad", "iso3": "TCD", "wikipage": "https://fr.wikipedia.org/wiki/Tchad", "capital": "N'Djamena"},</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>349</v>
       </c>
@@ -5260,8 +6688,16 @@
       <c r="E175" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G175" t="str">
+        <f t="shared" si="4"/>
+        <v>Thaïlande</v>
+      </c>
+      <c r="P175" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Thaïlande", "iso3": "THA", "wikipage": "https://fr.wikipedia.org/wiki/Tha%C3%AFlande", "capital": "Bangkok"},</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>376</v>
       </c>
@@ -5274,8 +6710,16 @@
       <c r="E176" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G176" t="str">
+        <f t="shared" si="4"/>
+        <v>Timor oriental</v>
+      </c>
+      <c r="P176" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Timor oriental", "iso3": "TLS", "wikipage": "https://fr.wikipedia.org/wiki/Timor_oriental", "capital": "Dili"},</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>167</v>
       </c>
@@ -5288,8 +6732,16 @@
       <c r="E177" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G177" t="str">
+        <f t="shared" si="4"/>
+        <v>Togo</v>
+      </c>
+      <c r="P177" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Togo", "iso3": "TGO", "wikipage": "https://fr.wikipedia.org/wiki/Togo", "capital": "Lomé"},</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>169</v>
       </c>
@@ -5302,8 +6754,16 @@
       <c r="E178" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G178" t="str">
+        <f t="shared" si="4"/>
+        <v>Tonga</v>
+      </c>
+      <c r="P178" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Tonga", "iso3": "TON", "wikipage": "https://fr.wikipedia.org/wiki/Tonga", "capital": "Nukualofa"},</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>351</v>
       </c>
@@ -5319,8 +6779,16 @@
       <c r="E179" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G179" t="str">
+        <f t="shared" si="4"/>
+        <v>Trinité-et-Tobago,Trinité et tobago</v>
+      </c>
+      <c r="P179" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Trinité-et-Tobago", "iso3": "TTO", "wikipage": "https://fr.wikipedia.org/wiki/Trinit%C3%A9-et-Tobago", "capital": "Port of Spain"},</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>352</v>
       </c>
@@ -5333,8 +6801,16 @@
       <c r="E180" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G180" t="str">
+        <f t="shared" si="4"/>
+        <v>Tunisie</v>
+      </c>
+      <c r="P180" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Tunisie", "iso3": "TUN", "wikipage": "https://fr.wikipedia.org/wiki/Tunisie", "capital": "Tunis"},</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>353</v>
       </c>
@@ -5347,8 +6823,16 @@
       <c r="E181" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G181" t="str">
+        <f t="shared" si="4"/>
+        <v>Turkménistan</v>
+      </c>
+      <c r="P181" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Turkménistan", "iso3": "TKM", "wikipage": "https://fr.wikipedia.org/wiki/Turkm%C3%A9nistan", "capital": "Achgabat"},</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>355</v>
       </c>
@@ -5361,8 +6845,16 @@
       <c r="E182" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G182" t="str">
+        <f t="shared" si="4"/>
+        <v>Turquie</v>
+      </c>
+      <c r="P182" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Turquie", "iso3": "TUR", "wikipage": "https://fr.wikipedia.org/wiki/Turquie", "capital": "Ankara"},</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>173</v>
       </c>
@@ -5375,8 +6867,16 @@
       <c r="E183" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G183" t="str">
+        <f t="shared" si="4"/>
+        <v>Tuvalu</v>
+      </c>
+      <c r="P183" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Tuvalu", "iso3": "TUV", "wikipage": "https://fr.wikipedia.org/wiki/Tuvalu", "capital": "Fanafuti"},</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>175</v>
       </c>
@@ -5389,8 +6889,16 @@
       <c r="E184" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G184" t="str">
+        <f t="shared" si="4"/>
+        <v>Ukraine</v>
+      </c>
+      <c r="P184" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Ukraine", "iso3": "UKR", "wikipage": "https://fr.wikipedia.org/wiki/Ukraine", "capital": "Kiev"},</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>177</v>
       </c>
@@ -5403,8 +6911,16 @@
       <c r="E185" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G185" t="str">
+        <f t="shared" si="4"/>
+        <v>Uruguay</v>
+      </c>
+      <c r="P185" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Uruguay", "iso3": "URY", "wikipage": "https://fr.wikipedia.org/wiki/Uruguay", "capital": "Montevideo"},</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>179</v>
       </c>
@@ -5417,8 +6933,16 @@
       <c r="E186" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G186" t="str">
+        <f t="shared" si="4"/>
+        <v>Vanuatu</v>
+      </c>
+      <c r="P186" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Vanuatu", "iso3": "VUT", "wikipage": "https://fr.wikipedia.org/wiki/Vanuatu", "capital": "Port-Vila"},</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>180</v>
       </c>
@@ -5431,8 +6955,16 @@
       <c r="E187" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G187" t="str">
+        <f t="shared" si="4"/>
+        <v>Venezuela</v>
+      </c>
+      <c r="P187" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Venezuela", "iso3": "VEN", "wikipage": "https://fr.wikipedia.org/wiki/Venezuela", "capital": "Caracas"},</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>358</v>
       </c>
@@ -5448,8 +6980,16 @@
       <c r="E188" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G188" t="str">
+        <f t="shared" si="4"/>
+        <v>Viêt Nam,vietnam</v>
+      </c>
+      <c r="P188" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Viêt Nam", "iso3": "VNM", "wikipage": "https://fr.wikipedia.org/wiki/Vi%C3%AAt_Nam", "capital": "Hanoi"},</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>359</v>
       </c>
@@ -5462,8 +7002,16 @@
       <c r="E189" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G189" t="str">
+        <f t="shared" si="4"/>
+        <v>Yémen</v>
+      </c>
+      <c r="P189" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Yémen", "iso3": "YEM", "wikipage": "https://fr.wikipedia.org/wiki/Y%C3%A9men", "capital": "Sanaa"},</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>361</v>
       </c>
@@ -5476,8 +7024,16 @@
       <c r="E190" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G190" t="str">
+        <f t="shared" si="4"/>
+        <v>Zambie</v>
+      </c>
+      <c r="P190" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Zambie", "iso3": "ZMB", "wikipage": "https://fr.wikipedia.org/wiki/Zambie", "capital": "Lusaka"},</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>184</v>
       </c>
@@ -5490,8 +7046,35 @@
       <c r="E191" t="s">
         <v>767</v>
       </c>
+      <c r="G191" t="str">
+        <f t="shared" si="4"/>
+        <v>Zimbabwe</v>
+      </c>
+      <c r="P191" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name": "Zimbabwe", "iso3": "ZWE", "wikipage": "https://fr.wikipedia.org/wiki/Zimbabwe", "capital": "Harare"},</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE9AE5A-FE94-5245-AB69-EA3A3E598803}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>